--- a/column_mapping.xlsx
+++ b/column_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arams\Documents\repos\2025_10_RWA_Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BD759-8CDE-47E9-8C28-B4FD623D107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6370D84-27D6-4452-B658-440FE2F1FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="348" windowWidth="23976" windowHeight="16368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="24" windowWidth="27000" windowHeight="16368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="185">
   <si>
     <t>old_name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>avg_events_per_pennant</t>
   </si>
   <si>
-    <t>float64</t>
-  </si>
-  <si>
     <t>How many events would you prefer to compete in per regatta?</t>
   </si>
   <si>
@@ -572,6 +569,12 @@
   </si>
   <si>
     <t>enter_competition</t>
+  </si>
+  <si>
+    <t>masters_related</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -623,13 +626,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -934,20 +951,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="126.77734375" customWidth="1"/>
+    <col min="1" max="1" width="70.5546875" customWidth="1"/>
     <col min="2" max="2" width="59.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,8 +977,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -975,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1016,8 +1042,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1044,8 +1073,11 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1058,8 +1090,11 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1072,8 +1107,11 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1086,8 +1124,11 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1100,8 +1141,11 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1114,8 +1158,11 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1128,8 +1175,11 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1142,8 +1192,11 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1156,8 +1209,11 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1171,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1213,7 +1269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1221,172 +1277,181 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1394,13 +1459,16 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>44</v>
@@ -1408,27 +1476,30 @@
       <c r="D33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1437,12 +1508,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1450,13 +1521,16 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -1464,13 +1538,16 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -1478,13 +1555,16 @@
       <c r="D38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -1492,13 +1572,16 @@
       <c r="D39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -1507,12 +1590,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
         <v>90</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1520,13 +1603,16 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
         <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -1535,54 +1621,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
         <v>94</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1590,55 +1685,67 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>104</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>106</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>107</v>
       </c>
-      <c r="C49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -1646,13 +1753,16 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
         <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -1660,13 +1770,16 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>113</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -1674,27 +1787,33 @@
       <c r="D52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
         <v>114</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>117</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -1702,13 +1821,16 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
         <v>118</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -1716,13 +1838,16 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
         <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -1731,12 +1856,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -1745,12 +1870,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -1759,12 +1884,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
         <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -1773,26 +1898,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>129</v>
       </c>
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>130</v>
-      </c>
-      <c r="B61" t="s">
-        <v>131</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -1801,54 +1926,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
         <v>132</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>134</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>136</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>137</v>
       </c>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>138</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1857,40 +1982,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
         <v>140</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>142</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>143</v>
       </c>
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>144</v>
-      </c>
-      <c r="B68" t="s">
-        <v>145</v>
       </c>
       <c r="C68" t="s">
         <v>44</v>
@@ -1899,26 +2024,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
         <v>146</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>147</v>
       </c>
-      <c r="C69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>148</v>
-      </c>
-      <c r="B70" t="s">
-        <v>149</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -1927,12 +2052,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" t="s">
         <v>150</v>
-      </c>
-      <c r="B71" t="s">
-        <v>151</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -1940,83 +2065,101 @@
       <c r="D71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
         <v>152</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>153</v>
       </c>
-      <c r="C72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>154</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>155</v>
       </c>
-      <c r="C73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>156</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>157</v>
       </c>
-      <c r="C74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>158</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>160</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>161</v>
       </c>
-      <c r="C76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>162</v>
-      </c>
-      <c r="B77" t="s">
-        <v>163</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -2024,13 +2167,16 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" t="s">
         <v>164</v>
-      </c>
-      <c r="B78" t="s">
-        <v>165</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -2038,13 +2184,16 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
         <v>166</v>
-      </c>
-      <c r="B79" t="s">
-        <v>167</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -2052,13 +2201,16 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
         <v>168</v>
-      </c>
-      <c r="B80" t="s">
-        <v>169</v>
       </c>
       <c r="C80" t="s">
         <v>44</v>
@@ -2066,13 +2218,16 @@
       <c r="D80" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" t="s">
         <v>170</v>
-      </c>
-      <c r="B81" t="s">
-        <v>171</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -2081,12 +2236,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
         <v>172</v>
-      </c>
-      <c r="B82" t="s">
-        <v>173</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -2095,12 +2250,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" t="s">
         <v>174</v>
-      </c>
-      <c r="B83" t="s">
-        <v>175</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
@@ -2108,13 +2263,16 @@
       <c r="D83" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
         <v>176</v>
-      </c>
-      <c r="B84" t="s">
-        <v>177</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -2122,13 +2280,16 @@
       <c r="D84" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
         <v>178</v>
-      </c>
-      <c r="B85" t="s">
-        <v>179</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -2136,13 +2297,16 @@
       <c r="D85" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" t="s">
         <v>180</v>
-      </c>
-      <c r="B86" t="s">
-        <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
@@ -2150,13 +2314,16 @@
       <c r="D86" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
         <v>182</v>
-      </c>
-      <c r="B87" t="s">
-        <v>183</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
